--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 EN.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 EN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
   <si>
     <t>Course</t>
   </si>
@@ -124,6 +124,54 @@
     <t>45.83%</t>
   </si>
   <si>
+    <t>CHEN-323</t>
+  </si>
+  <si>
+    <t>VADDIRAJU S</t>
+  </si>
+  <si>
+    <t>15.38%</t>
+  </si>
+  <si>
+    <t>69.23%</t>
+  </si>
+  <si>
+    <t>CHEN-455</t>
+  </si>
+  <si>
+    <t>CHENG Z</t>
+  </si>
+  <si>
+    <t>80.95%</t>
+  </si>
+  <si>
+    <t>19.05%</t>
+  </si>
+  <si>
+    <t>CHEN-464</t>
+  </si>
+  <si>
+    <t>JEONG H</t>
+  </si>
+  <si>
+    <t>18.92%</t>
+  </si>
+  <si>
+    <t>40.54%</t>
+  </si>
+  <si>
+    <t>35.14%</t>
+  </si>
+  <si>
+    <t>5.41%</t>
+  </si>
+  <si>
+    <t>CHEN-489</t>
+  </si>
+  <si>
+    <t>JAYARAMAN A</t>
+  </si>
+  <si>
     <t>CSCE-111</t>
   </si>
   <si>
@@ -169,6 +217,45 @@
     <t>7.14%</t>
   </si>
   <si>
+    <t>CSCE-221</t>
+  </si>
+  <si>
+    <t>LEYK T</t>
+  </si>
+  <si>
+    <t>52.00%</t>
+  </si>
+  <si>
+    <t>28.00%</t>
+  </si>
+  <si>
+    <t>CSCE-222</t>
+  </si>
+  <si>
+    <t>SARIN V</t>
+  </si>
+  <si>
+    <t>46.43%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>CSCE-312</t>
+  </si>
+  <si>
+    <t>HAMMOND T</t>
+  </si>
+  <si>
+    <t>64.71%</t>
+  </si>
+  <si>
+    <t>29.41%</t>
+  </si>
+  <si>
+    <t>5.88%</t>
+  </si>
+  <si>
     <t>CSCE-313</t>
   </si>
   <si>
@@ -181,9 +268,6 @@
     <t>46.15%</t>
   </si>
   <si>
-    <t>15.38%</t>
-  </si>
-  <si>
     <t>3.85%</t>
   </si>
   <si>
@@ -196,9 +280,6 @@
     <t>76.19%</t>
   </si>
   <si>
-    <t>19.05%</t>
-  </si>
-  <si>
     <t>4.76%</t>
   </si>
   <si>
@@ -310,6 +391,21 @@
     <t>29.03%</t>
   </si>
   <si>
+    <t>CVEN-342</t>
+  </si>
+  <si>
+    <t>PARK P</t>
+  </si>
+  <si>
+    <t>22.73%</t>
+  </si>
+  <si>
+    <t>63.64%</t>
+  </si>
+  <si>
+    <t>13.64%</t>
+  </si>
+  <si>
     <t>CVEN-365</t>
   </si>
   <si>
@@ -400,12 +496,24 @@
     <t>VILLAREAL S</t>
   </si>
   <si>
-    <t>61.54%</t>
+    <t>65.38%</t>
+  </si>
+  <si>
+    <t>26.92%</t>
   </si>
   <si>
     <t>7.69%</t>
   </si>
   <si>
+    <t>ECEN-314</t>
+  </si>
+  <si>
+    <t>BHATTACHARYYA S</t>
+  </si>
+  <si>
+    <t>91.67%</t>
+  </si>
+  <si>
     <t>ECEN-322</t>
   </si>
   <si>
@@ -481,9 +589,6 @@
     <t>ECEN-420</t>
   </si>
   <si>
-    <t>BHATTACHARYYA S</t>
-  </si>
-  <si>
     <t>ECEN-444</t>
   </si>
   <si>
@@ -538,9 +643,6 @@
     <t>14.71%</t>
   </si>
   <si>
-    <t>5.88%</t>
-  </si>
-  <si>
     <t>ENGR-111</t>
   </si>
   <si>
@@ -571,13 +673,37 @@
     <t>ENGR-385</t>
   </si>
   <si>
+    <t>CATON J</t>
+  </si>
+  <si>
+    <t>96.55%</t>
+  </si>
+  <si>
     <t>FELDMAN R</t>
   </si>
   <si>
     <t>83.33%</t>
   </si>
   <si>
-    <t>SARIN V</t>
+    <t>ENGR-410</t>
+  </si>
+  <si>
+    <t>LAWRENCE F</t>
+  </si>
+  <si>
+    <t>90.00%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>ENGR-482</t>
+  </si>
+  <si>
+    <t>BANERJEE D</t>
+  </si>
+  <si>
+    <t>70.59%</t>
   </si>
   <si>
     <t>ENGR-491</t>
@@ -598,10 +724,25 @@
     <t>HUNG N</t>
   </si>
   <si>
-    <t>46.43%</t>
-  </si>
-  <si>
-    <t>32.14%</t>
+    <t>21.21%</t>
+  </si>
+  <si>
+    <t>48.48%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>3.03%</t>
+  </si>
+  <si>
+    <t>ENTC-206</t>
+  </si>
+  <si>
+    <t>FANG G</t>
+  </si>
+  <si>
+    <t>56.25%</t>
   </si>
   <si>
     <t>ENTC-219</t>
@@ -655,30 +796,15 @@
     <t>GOLLA M</t>
   </si>
   <si>
-    <t>22.73%</t>
-  </si>
-  <si>
-    <t>63.64%</t>
-  </si>
-  <si>
-    <t>13.64%</t>
-  </si>
-  <si>
     <t>IDIS-400</t>
   </si>
   <si>
     <t>17.86%</t>
   </si>
   <si>
-    <t>3.57%</t>
-  </si>
-  <si>
     <t>IDIS-445</t>
   </si>
   <si>
-    <t>LAWRENCE F</t>
-  </si>
-  <si>
     <t>ISEN-303</t>
   </si>
   <si>
@@ -721,12 +847,6 @@
     <t>SMITH D</t>
   </si>
   <si>
-    <t>70.59%</t>
-  </si>
-  <si>
-    <t>29.41%</t>
-  </si>
-  <si>
     <t>MEEN-221</t>
   </si>
   <si>
@@ -754,9 +874,6 @@
     <t>STRZELEC A</t>
   </si>
   <si>
-    <t>27.27%</t>
-  </si>
-  <si>
     <t>24.24%</t>
   </si>
   <si>
@@ -778,6 +895,15 @@
     <t>53.13%</t>
   </si>
   <si>
+    <t>MEEN-368</t>
+  </si>
+  <si>
+    <t>HOGAN H</t>
+  </si>
+  <si>
+    <t>72.73%</t>
+  </si>
+  <si>
     <t>MEEN-401</t>
   </si>
   <si>
@@ -811,9 +937,6 @@
     <t>MEEN-475</t>
   </si>
   <si>
-    <t>HOGAN H</t>
-  </si>
-  <si>
     <t>NUEN-302</t>
   </si>
   <si>
@@ -836,9 +959,6 @@
   </si>
   <si>
     <t>MARIANNO C</t>
-  </si>
-  <si>
-    <t>10.00%</t>
   </si>
   <si>
     <t>PETE-301</t>
@@ -1259,7 +1379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:H294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1527,7 +1647,7 @@
         <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>3.071</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -1536,7 +1656,7 @@
         <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -1547,27 +1667,27 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D30" t="s">
         <v>42</v>
       </c>
-      <c r="C30" t="n">
-        <v>3.632</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>43</v>
       </c>
-      <c r="E30" t="s">
-        <v>44</v>
-      </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -1575,80 +1695,80 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C33" t="n">
-        <v>2.9165</v>
+        <v>2.676</v>
       </c>
       <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
         <v>48</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
         <v>49</v>
-      </c>
-      <c r="F33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="n">
-        <v>2.962</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>3.714</v>
+        <v>3.071</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -1659,80 +1779,80 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C42" t="n">
-        <v>2.724</v>
+        <v>3.632</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2.9165</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C48" t="n">
-        <v>3.818</v>
+        <v>3.32</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -1743,52 +1863,52 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C51" t="n">
-        <v>3.8</v>
+        <v>2.786</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C54" t="n">
-        <v>3.1</v>
+        <v>3.588</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -1799,274 +1919,274 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
         <v>84</v>
       </c>
-      <c r="C57" t="n">
-        <v>2.922</v>
-      </c>
-      <c r="D57" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" t="s">
-        <v>88</v>
-      </c>
       <c r="H57" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.724</v>
+      </c>
+      <c r="D63" t="s">
         <v>91</v>
       </c>
-      <c r="C60" t="n">
+      <c r="E63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>102</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="B72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" t="s">
+        <v>109</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.922</v>
+      </c>
+      <c r="D78" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" t="s">
+        <v>114</v>
+      </c>
+      <c r="G78" t="s">
+        <v>115</v>
+      </c>
+      <c r="H78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" t="n">
         <v>3.4</v>
       </c>
-      <c r="D60" t="s">
-        <v>92</v>
-      </c>
-      <c r="E60" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="D81" t="s">
+        <v>119</v>
+      </c>
+      <c r="E81" t="s">
+        <v>120</v>
+      </c>
+      <c r="F81" t="s">
         <v>27</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G81" t="s">
         <v>27</v>
       </c>
-      <c r="H60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2.968</v>
-      </c>
-      <c r="D61" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" t="s">
-        <v>97</v>
-      </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2.6083</v>
-      </c>
-      <c r="D64" t="s">
-        <v>100</v>
-      </c>
-      <c r="E64" t="s">
-        <v>101</v>
-      </c>
-      <c r="F64" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" t="s">
-        <v>103</v>
-      </c>
-      <c r="H64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="B67" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="D67" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" t="s">
-        <v>106</v>
-      </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="B70" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" t="n">
-        <v>4</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D73" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" t="s">
-        <v>110</v>
-      </c>
-      <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D76" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" t="s">
-        <v>49</v>
-      </c>
-      <c r="F76" t="s">
-        <v>106</v>
-      </c>
-      <c r="G76" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D79" t="s">
-        <v>115</v>
-      </c>
-      <c r="E79" t="s">
-        <v>49</v>
-      </c>
-      <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>116</v>
+      <c r="H81" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C82" t="n">
-        <v>2.375</v>
+        <v>2.968</v>
       </c>
       <c r="D82" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E82" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="F82" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="G82" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="H82" t="s">
         <v>11</v>
@@ -2074,55 +2194,55 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C85" t="n">
-        <v>2.5123</v>
+        <v>3.1</v>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F85" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G85" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="B88" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C88" t="n">
-        <v>3.538</v>
+        <v>2.6083</v>
       </c>
       <c r="D88" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E88" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="F88" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G88" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
@@ -2130,324 +2250,324 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="B91" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C91" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="D91" t="s">
+        <v>55</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" t="s">
+        <v>138</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" t="n">
         <v>4</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D94" t="s">
         <v>10</v>
       </c>
-      <c r="E91" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="B92" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2.194</v>
-      </c>
-      <c r="D92" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" t="s">
-        <v>134</v>
-      </c>
-      <c r="F92" t="s">
-        <v>135</v>
-      </c>
-      <c r="G92" t="s">
-        <v>133</v>
-      </c>
-      <c r="H92" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="B95" t="s">
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="B100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" t="s">
         <v>138</v>
       </c>
-      <c r="C95" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D95" t="s">
-        <v>139</v>
-      </c>
-      <c r="E95" t="s">
-        <v>82</v>
-      </c>
-      <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="B98" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2.408</v>
-      </c>
-      <c r="D98" t="s">
-        <v>142</v>
-      </c>
-      <c r="E98" t="s">
-        <v>143</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" t="s">
         <v>144</v>
       </c>
-      <c r="G98" t="s">
-        <v>145</v>
-      </c>
-      <c r="H98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="B101" t="s">
+      <c r="C103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D103" t="s">
         <v>147</v>
       </c>
-      <c r="C101" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E103" t="s">
+        <v>65</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
         <v>148</v>
       </c>
-      <c r="E101" t="s">
-        <v>39</v>
-      </c>
-      <c r="F101" t="s">
+    </row>
+    <row r="106" spans="1:8">
+      <c r="B106" t="s">
         <v>149</v>
       </c>
-      <c r="G101" t="s">
-        <v>11</v>
-      </c>
-      <c r="H101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
+      <c r="C106" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="D106" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" t="s">
-        <v>127</v>
-      </c>
-      <c r="C104" t="n">
-        <v>3</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E106" t="s">
+        <v>108</v>
+      </c>
+      <c r="F106" t="s">
+        <v>108</v>
+      </c>
+      <c r="G106" t="s">
         <v>151</v>
       </c>
-      <c r="E104" t="s">
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
         <v>152</v>
       </c>
-      <c r="F104" t="s">
-        <v>151</v>
-      </c>
-      <c r="G104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.5123</v>
+      </c>
+      <c r="D109" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="B107" t="s">
-        <v>131</v>
-      </c>
-      <c r="C107" t="n">
+      <c r="E109" t="s">
+        <v>154</v>
+      </c>
+      <c r="F109" t="s">
+        <v>155</v>
+      </c>
+      <c r="G109" t="s">
+        <v>156</v>
+      </c>
+      <c r="H109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3.5765</v>
+      </c>
+      <c r="D112" t="s">
+        <v>160</v>
+      </c>
+      <c r="E112" t="s">
+        <v>161</v>
+      </c>
+      <c r="F112" t="s">
+        <v>162</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" t="s">
+        <v>164</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.917</v>
+      </c>
+      <c r="D115" t="s">
+        <v>165</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" t="s">
+        <v>167</v>
+      </c>
+      <c r="C118" t="n">
         <v>4</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D118" t="s">
         <v>10</v>
       </c>
-      <c r="E107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s">
-        <v>11</v>
-      </c>
-      <c r="H107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="B110" t="s">
-        <v>155</v>
-      </c>
-      <c r="C110" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D110" t="s">
-        <v>115</v>
-      </c>
-      <c r="E110" t="s">
-        <v>49</v>
-      </c>
-      <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="B113" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" t="n">
-        <v>3.364</v>
-      </c>
-      <c r="D113" t="s">
-        <v>158</v>
-      </c>
-      <c r="E113" t="s">
-        <v>158</v>
-      </c>
-      <c r="F113" t="s">
-        <v>75</v>
-      </c>
-      <c r="G113" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="B116" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" t="n">
-        <v>3.182</v>
-      </c>
-      <c r="D116" t="s">
-        <v>160</v>
-      </c>
-      <c r="E116" t="s">
-        <v>158</v>
-      </c>
-      <c r="F116" t="s">
-        <v>100</v>
-      </c>
-      <c r="G116" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
-        <v>161</v>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="B119" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>2.194</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="G119" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="H119" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="B122" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C122" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F122" t="s">
         <v>11</v>
@@ -2461,55 +2581,55 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="B125" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C125" t="n">
-        <v>3.129</v>
+        <v>2.408</v>
       </c>
       <c r="D125" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="E125" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F125" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="G125" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="H125" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C128" t="n">
-        <v>3.294</v>
+        <v>3.125</v>
       </c>
       <c r="D128" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E128" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="F128" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="G128" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="H128" t="s">
         <v>11</v>
@@ -2517,27 +2637,27 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="B131" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C131" t="n">
-        <v>2.895</v>
+        <v>3</v>
       </c>
       <c r="D131" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E131" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F131" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G131" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="H131" t="s">
         <v>11</v>
@@ -2545,961 +2665,961 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C137" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D137" t="s">
+        <v>147</v>
+      </c>
+      <c r="E137" t="s">
+        <v>65</v>
+      </c>
+      <c r="F137" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="B140" t="s">
+        <v>192</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="D140" t="s">
+        <v>193</v>
+      </c>
+      <c r="E140" t="s">
+        <v>193</v>
+      </c>
+      <c r="F140" t="s">
+        <v>102</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="B143" t="s">
+        <v>192</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="D143" t="s">
+        <v>195</v>
+      </c>
+      <c r="E143" t="s">
+        <v>193</v>
+      </c>
+      <c r="F143" t="s">
+        <v>132</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="B146" t="s">
+        <v>197</v>
+      </c>
+      <c r="C146" t="n">
         <v>4</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D146" t="s">
         <v>10</v>
       </c>
-      <c r="E137" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="B138" t="s">
-        <v>185</v>
-      </c>
-      <c r="C138" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D138" t="s">
-        <v>186</v>
-      </c>
-      <c r="E138" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="B139" t="s">
-        <v>187</v>
-      </c>
-      <c r="C139" t="n">
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" t="s">
+        <v>11</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="B149" t="s">
+        <v>199</v>
+      </c>
+      <c r="C149" t="n">
         <v>4</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D149" t="s">
         <v>10</v>
       </c>
-      <c r="E139" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s">
-        <v>11</v>
-      </c>
-      <c r="H139" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="B142" t="s">
-        <v>189</v>
-      </c>
-      <c r="C142" t="n">
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="B152" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="D152" t="s">
+        <v>122</v>
+      </c>
+      <c r="E152" t="s">
+        <v>202</v>
+      </c>
+      <c r="F152" t="s">
+        <v>203</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="B155" t="s">
+        <v>205</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3.294</v>
+      </c>
+      <c r="D155" t="s">
+        <v>206</v>
+      </c>
+      <c r="E155" t="s">
+        <v>207</v>
+      </c>
+      <c r="F155" t="s">
+        <v>208</v>
+      </c>
+      <c r="G155" t="s">
+        <v>79</v>
+      </c>
+      <c r="H155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="B158" t="s">
+        <v>210</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="D158" t="s">
+        <v>211</v>
+      </c>
+      <c r="E158" t="s">
+        <v>211</v>
+      </c>
+      <c r="F158" t="s">
+        <v>211</v>
+      </c>
+      <c r="G158" t="s">
+        <v>212</v>
+      </c>
+      <c r="H158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="B161" t="s">
+        <v>214</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3</v>
+      </c>
+      <c r="D161" t="s">
+        <v>215</v>
+      </c>
+      <c r="E161" t="s">
+        <v>216</v>
+      </c>
+      <c r="F161" t="s">
+        <v>97</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="B164" t="s">
+        <v>197</v>
+      </c>
+      <c r="C164" t="n">
         <v>4</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D164" t="s">
         <v>10</v>
       </c>
-      <c r="E142" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="B145" t="s">
-        <v>191</v>
-      </c>
-      <c r="C145" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D145" t="s">
-        <v>92</v>
-      </c>
-      <c r="E145" t="s">
-        <v>81</v>
-      </c>
-      <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s">
-        <v>11</v>
-      </c>
-      <c r="H145" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="B148" t="s">
-        <v>193</v>
-      </c>
-      <c r="C148" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="D148" t="s">
-        <v>40</v>
-      </c>
-      <c r="E148" t="s">
-        <v>194</v>
-      </c>
-      <c r="F148" t="s">
-        <v>195</v>
-      </c>
-      <c r="G148" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="B151" t="s">
-        <v>197</v>
-      </c>
-      <c r="C151" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="D151" t="s">
-        <v>122</v>
-      </c>
-      <c r="E151" t="s">
-        <v>122</v>
-      </c>
-      <c r="F151" t="s">
-        <v>198</v>
-      </c>
-      <c r="G151" t="s">
-        <v>11</v>
-      </c>
-      <c r="H151" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="B154" t="s">
-        <v>200</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2.154</v>
-      </c>
-      <c r="D154" t="s">
-        <v>129</v>
-      </c>
-      <c r="E154" t="s">
-        <v>152</v>
-      </c>
-      <c r="F154" t="s">
-        <v>201</v>
-      </c>
-      <c r="G154" t="s">
-        <v>129</v>
-      </c>
-      <c r="H154" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="B157" t="s">
-        <v>203</v>
-      </c>
-      <c r="C157" t="n">
-        <v>3.546</v>
-      </c>
-      <c r="D157" t="s">
-        <v>204</v>
-      </c>
-      <c r="E157" t="s">
-        <v>158</v>
-      </c>
-      <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s">
-        <v>11</v>
-      </c>
-      <c r="H157" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="B160" t="s">
-        <v>206</v>
-      </c>
-      <c r="C160" t="n">
-        <v>4</v>
-      </c>
-      <c r="D160" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="B163" t="s">
-        <v>208</v>
-      </c>
-      <c r="C163" t="n">
-        <v>3.1945</v>
-      </c>
-      <c r="D163" t="s">
-        <v>181</v>
-      </c>
-      <c r="E163" t="s">
-        <v>209</v>
-      </c>
-      <c r="F163" t="s">
-        <v>210</v>
-      </c>
-      <c r="G163" t="s">
-        <v>11</v>
-      </c>
-      <c r="H163" t="s">
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164" t="s">
+        <v>11</v>
+      </c>
+      <c r="H164" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" t="s">
-        <v>211</v>
+      <c r="B165" t="s">
+        <v>219</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="D165" t="s">
+        <v>220</v>
+      </c>
+      <c r="E165" t="s">
+        <v>94</v>
+      </c>
+      <c r="F165" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+      <c r="H165" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="B166" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C166" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D166" t="s">
+        <v>222</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="B167" t="s">
+        <v>72</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" t="s">
+        <v>11</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
+        <v>224</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D170" t="s">
+        <v>225</v>
+      </c>
+      <c r="E170" t="s">
+        <v>226</v>
+      </c>
+      <c r="F170" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="B173" t="s">
+        <v>228</v>
+      </c>
+      <c r="C173" t="n">
+        <v>3.529</v>
+      </c>
+      <c r="D173" t="s">
+        <v>229</v>
+      </c>
+      <c r="E173" t="s">
+        <v>207</v>
+      </c>
+      <c r="F173" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="B176" t="s">
+        <v>231</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="B179" t="s">
+        <v>233</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>119</v>
+      </c>
+      <c r="E179" t="s">
+        <v>108</v>
+      </c>
+      <c r="F179" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="B182" t="s">
+        <v>235</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.8667</v>
+      </c>
+      <c r="D182" t="s">
+        <v>236</v>
+      </c>
+      <c r="E182" t="s">
+        <v>237</v>
+      </c>
+      <c r="F182" t="s">
+        <v>238</v>
+      </c>
+      <c r="G182" t="s">
+        <v>239</v>
+      </c>
+      <c r="H182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="B185" t="s">
+        <v>241</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3.1875</v>
+      </c>
+      <c r="D185" t="s">
+        <v>184</v>
+      </c>
+      <c r="E185" t="s">
+        <v>242</v>
+      </c>
+      <c r="F185" t="s">
+        <v>138</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="B188" t="s">
+        <v>244</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="D188" t="s">
+        <v>154</v>
+      </c>
+      <c r="E188" t="s">
+        <v>154</v>
+      </c>
+      <c r="F188" t="s">
+        <v>245</v>
+      </c>
+      <c r="G188" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="B191" t="s">
+        <v>247</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.154</v>
+      </c>
+      <c r="D191" t="s">
+        <v>162</v>
+      </c>
+      <c r="E191" t="s">
+        <v>188</v>
+      </c>
+      <c r="F191" t="s">
+        <v>248</v>
+      </c>
+      <c r="G191" t="s">
+        <v>162</v>
+      </c>
+      <c r="H191" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="B194" t="s">
+        <v>250</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="D194" t="s">
+        <v>251</v>
+      </c>
+      <c r="E194" t="s">
+        <v>193</v>
+      </c>
+      <c r="F194" t="s">
+        <v>11</v>
+      </c>
+      <c r="G194" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="B197" t="s">
+        <v>253</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" t="s">
+        <v>11</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="B200" t="s">
+        <v>255</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.1945</v>
+      </c>
+      <c r="D200" t="s">
+        <v>215</v>
+      </c>
+      <c r="E200" t="s">
+        <v>256</v>
+      </c>
+      <c r="F200" t="s">
+        <v>257</v>
+      </c>
+      <c r="G200" t="s">
+        <v>11</v>
+      </c>
+      <c r="H200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="B203" t="s">
+        <v>259</v>
+      </c>
+      <c r="C203" t="n">
         <v>3.125</v>
       </c>
-      <c r="D166" t="s">
-        <v>213</v>
-      </c>
-      <c r="E166" t="s">
-        <v>214</v>
-      </c>
-      <c r="F166" t="s">
-        <v>215</v>
-      </c>
-      <c r="G166" t="s">
-        <v>11</v>
-      </c>
-      <c r="H166" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="B169" t="s">
-        <v>208</v>
-      </c>
-      <c r="C169" t="n">
+      <c r="D203" t="s">
+        <v>127</v>
+      </c>
+      <c r="E203" t="s">
+        <v>128</v>
+      </c>
+      <c r="F203" t="s">
+        <v>129</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="B206" t="s">
+        <v>255</v>
+      </c>
+      <c r="C206" t="n">
         <v>3.029</v>
       </c>
-      <c r="D169" t="s">
-        <v>38</v>
-      </c>
-      <c r="E169" t="s">
-        <v>39</v>
-      </c>
-      <c r="F169" t="s">
-        <v>217</v>
-      </c>
-      <c r="G169" t="s">
-        <v>11</v>
-      </c>
-      <c r="H169" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="B172" t="s">
-        <v>220</v>
-      </c>
-      <c r="C172" t="n">
+      <c r="D206" t="s">
+        <v>54</v>
+      </c>
+      <c r="E206" t="s">
+        <v>55</v>
+      </c>
+      <c r="F206" t="s">
+        <v>261</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="B209" t="s">
+        <v>224</v>
+      </c>
+      <c r="C209" t="n">
         <v>4</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D209" t="s">
         <v>10</v>
       </c>
-      <c r="E172" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s">
-        <v>11</v>
-      </c>
-      <c r="H172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
+      <c r="E209" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" t="s">
+        <v>11</v>
+      </c>
+      <c r="G209" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="B212" t="s">
+        <v>264</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.484</v>
+      </c>
+      <c r="D212" t="s">
+        <v>171</v>
+      </c>
+      <c r="E212" t="s">
+        <v>265</v>
+      </c>
+      <c r="F212" t="s">
+        <v>122</v>
+      </c>
+      <c r="G212" t="s">
+        <v>169</v>
+      </c>
+      <c r="H212" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="B215" t="s">
+        <v>267</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3</v>
+      </c>
+      <c r="D215" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" t="s">
+        <v>15</v>
+      </c>
+      <c r="F215" t="s">
+        <v>15</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="B218" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="B175" t="s">
-        <v>222</v>
-      </c>
-      <c r="C175" t="n">
-        <v>2.484</v>
-      </c>
-      <c r="D175" t="s">
-        <v>135</v>
-      </c>
-      <c r="E175" t="s">
-        <v>223</v>
-      </c>
-      <c r="F175" t="s">
-        <v>95</v>
-      </c>
-      <c r="G175" t="s">
-        <v>133</v>
-      </c>
-      <c r="H175" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="B178" t="s">
-        <v>225</v>
-      </c>
-      <c r="C178" t="n">
-        <v>3</v>
-      </c>
-      <c r="D178" t="s">
-        <v>15</v>
-      </c>
-      <c r="E178" t="s">
-        <v>15</v>
-      </c>
-      <c r="F178" t="s">
-        <v>15</v>
-      </c>
-      <c r="G178" t="s">
-        <v>11</v>
-      </c>
-      <c r="H178" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="B181" t="s">
-        <v>185</v>
-      </c>
-      <c r="C181" t="n">
+      <c r="C218" t="n">
         <v>2.778</v>
       </c>
-      <c r="D181" t="s">
-        <v>227</v>
-      </c>
-      <c r="E181" t="s">
-        <v>228</v>
-      </c>
-      <c r="F181" t="s">
+      <c r="D218" t="s">
+        <v>269</v>
+      </c>
+      <c r="E218" t="s">
+        <v>270</v>
+      </c>
+      <c r="F218" t="s">
+        <v>271</v>
+      </c>
+      <c r="G218" t="s">
+        <v>272</v>
+      </c>
+      <c r="H218" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="B221" t="s">
+        <v>221</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D221" t="s">
+        <v>274</v>
+      </c>
+      <c r="E221" t="s">
+        <v>11</v>
+      </c>
+      <c r="F221" t="s">
+        <v>138</v>
+      </c>
+      <c r="G221" t="s">
+        <v>11</v>
+      </c>
+      <c r="H221" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="B224" t="s">
+        <v>276</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3.7085</v>
+      </c>
+      <c r="D224" t="s">
         <v>229</v>
       </c>
-      <c r="G181" t="s">
-        <v>230</v>
-      </c>
-      <c r="H181" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="B184" t="s">
-        <v>185</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D184" t="s">
-        <v>232</v>
-      </c>
-      <c r="E184" t="s">
-        <v>11</v>
-      </c>
-      <c r="F184" t="s">
-        <v>106</v>
-      </c>
-      <c r="G184" t="s">
-        <v>11</v>
-      </c>
-      <c r="H184" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="B187" t="s">
-        <v>234</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.7085</v>
-      </c>
-      <c r="D187" t="s">
-        <v>235</v>
-      </c>
-      <c r="E187" t="s">
-        <v>236</v>
-      </c>
-      <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s">
-        <v>11</v>
-      </c>
-      <c r="H187" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="B190" t="s">
-        <v>238</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.872</v>
-      </c>
-      <c r="D190" t="s">
-        <v>53</v>
-      </c>
-      <c r="E190" t="s">
-        <v>239</v>
-      </c>
-      <c r="F190" t="s">
-        <v>55</v>
-      </c>
-      <c r="G190" t="s">
-        <v>240</v>
-      </c>
-      <c r="H190" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="B193" t="s">
-        <v>243</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.214</v>
-      </c>
-      <c r="D193" t="s">
-        <v>122</v>
-      </c>
-      <c r="E193" t="s">
-        <v>123</v>
-      </c>
-      <c r="F193" t="s">
-        <v>40</v>
-      </c>
-      <c r="G193" t="s">
-        <v>11</v>
-      </c>
-      <c r="H193" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="B196" t="s">
-        <v>245</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="D196" t="s">
-        <v>11</v>
-      </c>
-      <c r="E196" t="s">
-        <v>75</v>
-      </c>
-      <c r="F196" t="s">
-        <v>101</v>
-      </c>
-      <c r="G196" t="s">
-        <v>246</v>
-      </c>
-      <c r="H196" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="B199" t="s">
-        <v>249</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="D199" t="s">
-        <v>113</v>
-      </c>
-      <c r="E199" t="s">
-        <v>22</v>
-      </c>
-      <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s">
-        <v>11</v>
-      </c>
-      <c r="H199" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="B202" t="s">
-        <v>251</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.969</v>
-      </c>
-      <c r="D202" t="s">
-        <v>252</v>
-      </c>
-      <c r="E202" t="s">
-        <v>253</v>
-      </c>
-      <c r="F202" t="s">
-        <v>49</v>
-      </c>
-      <c r="G202" t="s">
-        <v>11</v>
-      </c>
-      <c r="H202" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="B205" t="s">
-        <v>255</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D205" t="s">
-        <v>115</v>
-      </c>
-      <c r="E205" t="s">
-        <v>49</v>
-      </c>
-      <c r="F205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G205" t="s">
-        <v>11</v>
-      </c>
-      <c r="H205" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="B208" t="s">
-        <v>257</v>
-      </c>
-      <c r="C208" t="n">
-        <v>4</v>
-      </c>
-      <c r="D208" t="s">
-        <v>10</v>
-      </c>
-      <c r="E208" t="s">
-        <v>11</v>
-      </c>
-      <c r="F208" t="s">
-        <v>11</v>
-      </c>
-      <c r="G208" t="s">
-        <v>11</v>
-      </c>
-      <c r="H208" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="B211" t="s">
-        <v>259</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3.586</v>
-      </c>
-      <c r="D211" t="s">
-        <v>260</v>
-      </c>
-      <c r="E211" t="s">
-        <v>261</v>
-      </c>
-      <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s">
-        <v>11</v>
-      </c>
-      <c r="H211" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="B214" t="s">
-        <v>263</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4</v>
-      </c>
-      <c r="D214" t="s">
-        <v>10</v>
-      </c>
-      <c r="E214" t="s">
-        <v>11</v>
-      </c>
-      <c r="F214" t="s">
-        <v>11</v>
-      </c>
-      <c r="G214" t="s">
-        <v>11</v>
-      </c>
-      <c r="H214" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="B217" t="s">
-        <v>265</v>
-      </c>
-      <c r="C217" t="n">
-        <v>3.909</v>
-      </c>
-      <c r="D217" t="s">
-        <v>74</v>
-      </c>
-      <c r="E217" t="s">
-        <v>75</v>
-      </c>
-      <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s">
-        <v>11</v>
-      </c>
-      <c r="H217" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="B220" t="s">
-        <v>267</v>
-      </c>
-      <c r="C220" t="n">
-        <v>3.357</v>
-      </c>
-      <c r="D220" t="s">
-        <v>268</v>
-      </c>
-      <c r="E220" t="s">
-        <v>40</v>
-      </c>
-      <c r="F220" t="s">
-        <v>50</v>
-      </c>
-      <c r="G220" t="s">
-        <v>11</v>
-      </c>
-      <c r="H220" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="B223" t="s">
-        <v>270</v>
-      </c>
-      <c r="C223" t="n">
-        <v>4</v>
-      </c>
-      <c r="D223" t="s">
-        <v>10</v>
-      </c>
-      <c r="E223" t="s">
-        <v>11</v>
-      </c>
-      <c r="F223" t="s">
-        <v>11</v>
-      </c>
-      <c r="G223" t="s">
-        <v>11</v>
-      </c>
-      <c r="H223" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" t="s">
-        <v>271</v>
+      <c r="E224" t="s">
+        <v>78</v>
+      </c>
+      <c r="F224" t="s">
+        <v>11</v>
+      </c>
+      <c r="G224" t="s">
+        <v>11</v>
+      </c>
+      <c r="H224" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="B226" t="s">
-        <v>272</v>
-      </c>
-      <c r="C226" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D226" t="s">
-        <v>81</v>
-      </c>
-      <c r="E226" t="s">
-        <v>92</v>
-      </c>
-      <c r="F226" t="s">
-        <v>11</v>
-      </c>
-      <c r="G226" t="s">
-        <v>11</v>
-      </c>
-      <c r="H226" t="s">
-        <v>11</v>
+      <c r="A226" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="B227" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C227" t="n">
-        <v>2.7</v>
+        <v>2.872</v>
       </c>
       <c r="D227" t="s">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="E227" t="s">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="F227" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="G227" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="H227" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="B230" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C230" t="n">
-        <v>3.25</v>
+        <v>3.214</v>
       </c>
       <c r="D230" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="E230" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="F230" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G230" t="s">
         <v>11</v>
@@ -3510,52 +3630,52 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="B233" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C233" t="n">
-        <v>3.636</v>
+        <v>1.333</v>
       </c>
       <c r="D233" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="E233" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="F233" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="G233" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="H233" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="B236" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>3.625</v>
       </c>
       <c r="D236" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="E236" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="F236" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="G236" t="s">
         <v>11</v>
@@ -3566,24 +3686,24 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="B239" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C239" t="n">
-        <v>3.8335</v>
+        <v>2.969</v>
       </c>
       <c r="D239" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E239" t="s">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="F239" t="s">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="G239" t="s">
         <v>11</v>
@@ -3594,24 +3714,24 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="B242" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C242" t="n">
-        <v>3.8223</v>
+        <v>3.273</v>
       </c>
       <c r="D242" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="E242" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F242" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="G242" t="s">
         <v>11</v>
@@ -3622,21 +3742,21 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="B245" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C245" t="n">
-        <v>3.818</v>
+        <v>3.75</v>
       </c>
       <c r="D245" t="s">
-        <v>291</v>
+        <v>147</v>
       </c>
       <c r="E245" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F245" t="s">
         <v>11</v>
@@ -3650,24 +3770,24 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="B248" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C248" t="n">
-        <v>3.6517</v>
+        <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>294</v>
+        <v>10</v>
       </c>
       <c r="E248" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="F248" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="G248" t="s">
         <v>11</v>
@@ -3678,21 +3798,21 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="B251" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C251" t="n">
-        <v>3.5955</v>
+        <v>3.586</v>
       </c>
       <c r="D251" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E251" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F251" t="s">
         <v>11</v>
@@ -3706,29 +3826,416 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="B254" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C254" t="n">
+        <v>4</v>
+      </c>
+      <c r="D254" t="s">
+        <v>10</v>
+      </c>
+      <c r="E254" t="s">
+        <v>11</v>
+      </c>
+      <c r="F254" t="s">
+        <v>11</v>
+      </c>
+      <c r="G254" t="s">
+        <v>11</v>
+      </c>
+      <c r="H254" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="B257" t="s">
+        <v>294</v>
+      </c>
+      <c r="C257" t="n">
+        <v>3.909</v>
+      </c>
+      <c r="D257" t="s">
+        <v>101</v>
+      </c>
+      <c r="E257" t="s">
+        <v>102</v>
+      </c>
+      <c r="F257" t="s">
+        <v>11</v>
+      </c>
+      <c r="G257" t="s">
+        <v>11</v>
+      </c>
+      <c r="H257" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="B260" t="s">
+        <v>308</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3.357</v>
+      </c>
+      <c r="D260" t="s">
+        <v>309</v>
+      </c>
+      <c r="E260" t="s">
+        <v>56</v>
+      </c>
+      <c r="F260" t="s">
+        <v>66</v>
+      </c>
+      <c r="G260" t="s">
+        <v>11</v>
+      </c>
+      <c r="H260" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="B263" t="s">
+        <v>311</v>
+      </c>
+      <c r="C263" t="n">
+        <v>4</v>
+      </c>
+      <c r="D263" t="s">
+        <v>10</v>
+      </c>
+      <c r="E263" t="s">
+        <v>11</v>
+      </c>
+      <c r="F263" t="s">
+        <v>11</v>
+      </c>
+      <c r="G263" t="s">
+        <v>11</v>
+      </c>
+      <c r="H263" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="B266" t="s">
+        <v>313</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D266" t="s">
+        <v>108</v>
+      </c>
+      <c r="E266" t="s">
+        <v>119</v>
+      </c>
+      <c r="F266" t="s">
+        <v>11</v>
+      </c>
+      <c r="G266" t="s">
+        <v>11</v>
+      </c>
+      <c r="H266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="B267" t="s">
+        <v>314</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D267" t="s">
+        <v>226</v>
+      </c>
+      <c r="E267" t="s">
+        <v>55</v>
+      </c>
+      <c r="F267" t="s">
+        <v>108</v>
+      </c>
+      <c r="G267" t="s">
+        <v>11</v>
+      </c>
+      <c r="H267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="B270" t="s">
+        <v>316</v>
+      </c>
+      <c r="C270" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D270" t="s">
+        <v>15</v>
+      </c>
+      <c r="E270" t="s">
+        <v>256</v>
+      </c>
+      <c r="F270" t="s">
+        <v>17</v>
+      </c>
+      <c r="G270" t="s">
+        <v>11</v>
+      </c>
+      <c r="H270" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="B273" t="s">
+        <v>318</v>
+      </c>
+      <c r="C273" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D273" t="s">
+        <v>128</v>
+      </c>
+      <c r="E273" t="s">
+        <v>195</v>
+      </c>
+      <c r="F273" t="s">
+        <v>11</v>
+      </c>
+      <c r="G273" t="s">
+        <v>11</v>
+      </c>
+      <c r="H273" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="B276" t="s">
+        <v>320</v>
+      </c>
+      <c r="C276" t="n">
+        <v>3</v>
+      </c>
+      <c r="D276" t="s">
+        <v>238</v>
+      </c>
+      <c r="E276" t="s">
+        <v>193</v>
+      </c>
+      <c r="F276" t="s">
+        <v>238</v>
+      </c>
+      <c r="G276" t="s">
+        <v>11</v>
+      </c>
+      <c r="H276" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="B279" t="s">
+        <v>322</v>
+      </c>
+      <c r="C279" t="n">
+        <v>3.8335</v>
+      </c>
+      <c r="D279" t="s">
+        <v>323</v>
+      </c>
+      <c r="E279" t="s">
+        <v>257</v>
+      </c>
+      <c r="F279" t="s">
+        <v>272</v>
+      </c>
+      <c r="G279" t="s">
+        <v>11</v>
+      </c>
+      <c r="H279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="B282" t="s">
+        <v>325</v>
+      </c>
+      <c r="C282" t="n">
+        <v>3.8223</v>
+      </c>
+      <c r="D282" t="s">
+        <v>326</v>
+      </c>
+      <c r="E282" t="s">
+        <v>327</v>
+      </c>
+      <c r="F282" t="s">
+        <v>328</v>
+      </c>
+      <c r="G282" t="s">
+        <v>11</v>
+      </c>
+      <c r="H282" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="B285" t="s">
+        <v>330</v>
+      </c>
+      <c r="C285" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D285" t="s">
+        <v>331</v>
+      </c>
+      <c r="E285" t="s">
+        <v>132</v>
+      </c>
+      <c r="F285" t="s">
+        <v>11</v>
+      </c>
+      <c r="G285" t="s">
+        <v>11</v>
+      </c>
+      <c r="H285" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="B288" t="s">
+        <v>333</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.6517</v>
+      </c>
+      <c r="D288" t="s">
+        <v>334</v>
+      </c>
+      <c r="E288" t="s">
+        <v>335</v>
+      </c>
+      <c r="F288" t="s">
+        <v>336</v>
+      </c>
+      <c r="G288" t="s">
+        <v>11</v>
+      </c>
+      <c r="H288" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="B291" t="s">
+        <v>338</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3.5955</v>
+      </c>
+      <c r="D291" t="s">
+        <v>339</v>
+      </c>
+      <c r="E291" t="s">
+        <v>340</v>
+      </c>
+      <c r="F291" t="s">
+        <v>11</v>
+      </c>
+      <c r="G291" t="s">
+        <v>11</v>
+      </c>
+      <c r="H291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="B294" t="s">
+        <v>342</v>
+      </c>
+      <c r="C294" t="n">
         <v>3.4585</v>
       </c>
-      <c r="D254" t="s">
-        <v>204</v>
-      </c>
-      <c r="E254" t="s">
-        <v>160</v>
-      </c>
-      <c r="F254" t="s">
-        <v>75</v>
-      </c>
-      <c r="G254" t="s">
-        <v>11</v>
-      </c>
-      <c r="H254" t="s">
+      <c r="D294" t="s">
+        <v>251</v>
+      </c>
+      <c r="E294" t="s">
+        <v>195</v>
+      </c>
+      <c r="F294" t="s">
+        <v>102</v>
+      </c>
+      <c r="G294" t="s">
+        <v>11</v>
+      </c>
+      <c r="H294" t="s">
         <v>11</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 EN.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 EN.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="352">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AERO-214</t>
   </si>
   <si>
@@ -217,6 +220,9 @@
     <t>7.14%</t>
   </si>
   <si>
+    <t>9.68%</t>
+  </si>
+  <si>
     <t>CSCE-221</t>
   </si>
   <si>
@@ -301,6 +307,9 @@
     <t>3.45%</t>
   </si>
   <si>
+    <t>3.33%</t>
+  </si>
+  <si>
     <t>CSCE-420</t>
   </si>
   <si>
@@ -313,6 +322,9 @@
     <t>5.56%</t>
   </si>
   <si>
+    <t>5.26%</t>
+  </si>
+  <si>
     <t>CSCE-489</t>
   </si>
   <si>
@@ -346,6 +358,9 @@
     <t>30.00%</t>
   </si>
   <si>
+    <t>23.08%</t>
+  </si>
+  <si>
     <t>CVEN-305</t>
   </si>
   <si>
@@ -367,6 +382,9 @@
     <t>1.56%</t>
   </si>
   <si>
+    <t>4.48%</t>
+  </si>
+  <si>
     <t>CVEN-339</t>
   </si>
   <si>
@@ -391,6 +409,9 @@
     <t>29.03%</t>
   </si>
   <si>
+    <t>6.06%</t>
+  </si>
+  <si>
     <t>CVEN-342</t>
   </si>
   <si>
@@ -490,6 +511,9 @@
     <t>1.79%</t>
   </si>
   <si>
+    <t>5.08%</t>
+  </si>
+  <si>
     <t>ECEN-248</t>
   </si>
   <si>
@@ -505,6 +529,9 @@
     <t>7.69%</t>
   </si>
   <si>
+    <t>3.70%</t>
+  </si>
+  <si>
     <t>ECEN-314</t>
   </si>
   <si>
@@ -523,9 +550,6 @@
     <t>MICHALSKI K</t>
   </si>
   <si>
-    <t>9.68%</t>
-  </si>
-  <si>
     <t>41.94%</t>
   </si>
   <si>
@@ -574,15 +598,15 @@
     <t>18.75%</t>
   </si>
   <si>
+    <t>3.03%</t>
+  </si>
+  <si>
     <t>ECEN-404</t>
   </si>
   <si>
     <t>38.46%</t>
   </si>
   <si>
-    <t>23.08%</t>
-  </si>
-  <si>
     <t>ECEN-410</t>
   </si>
   <si>
@@ -643,6 +667,9 @@
     <t>14.71%</t>
   </si>
   <si>
+    <t>2.86%</t>
+  </si>
+  <si>
     <t>ENGR-111</t>
   </si>
   <si>
@@ -652,9 +679,6 @@
     <t>31.58%</t>
   </si>
   <si>
-    <t>5.26%</t>
-  </si>
-  <si>
     <t>ENGR-112</t>
   </si>
   <si>
@@ -733,9 +757,6 @@
     <t>27.27%</t>
   </si>
   <si>
-    <t>3.03%</t>
-  </si>
-  <si>
     <t>ENTC-206</t>
   </si>
   <si>
@@ -832,7 +853,7 @@
     <t>29.63%</t>
   </si>
   <si>
-    <t>3.70%</t>
+    <t>6.90%</t>
   </si>
   <si>
     <t>ISEN-485</t>
@@ -868,6 +889,9 @@
     <t>CREASY T</t>
   </si>
   <si>
+    <t>17.65%</t>
+  </si>
+  <si>
     <t>MEEN-315</t>
   </si>
   <si>
@@ -875,6 +899,9 @@
   </si>
   <si>
     <t>24.24%</t>
+  </si>
+  <si>
+    <t>10.81%</t>
   </si>
   <si>
     <t>MEEN-363</t>
@@ -1080,12 +1107,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1379,15 +1405,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H294"/>
+  <dimension ref="A1:I294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1412,2831 +1438,3140 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>2.5835</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
         <v>2.5945</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
       <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>3.667</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="n">
         <v>2.708</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
         <v>39</v>
       </c>
-      <c r="F27" t="s">
-        <v>38</v>
-      </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="n">
         <v>3.81</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" t="n">
         <v>2.676</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" t="n">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" t="n">
         <v>3.071</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42" t="n">
         <v>3.632</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" t="n">
         <v>2.9165</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C48" t="n">
         <v>3.32</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C51" t="n">
         <v>2.786</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C54" t="n">
         <v>3.588</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C57" t="n">
         <v>2.962</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C60" t="n">
         <v>3.714</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C63" t="n">
         <v>2.724</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66" t="n">
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C69" t="n">
         <v>3.818</v>
       </c>
       <c r="D69" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C72" t="n">
         <v>3.8</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C75" t="n">
         <v>3.1</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F75" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C78" t="n">
         <v>2.922</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F78" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G78" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C81" t="n">
         <v>3.4</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E81" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C82" t="n">
         <v>2.968</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F82" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C85" t="n">
         <v>3.1</v>
       </c>
       <c r="D85" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E85" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F85" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C88" t="n">
         <v>2.6083</v>
       </c>
       <c r="D88" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F88" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G88" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C91" t="n">
         <v>3.375</v>
       </c>
       <c r="D91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C94" t="n">
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C97" t="n">
         <v>3.2</v>
       </c>
       <c r="D97" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E97" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H97" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C100" t="n">
         <v>3.5</v>
       </c>
       <c r="D100" t="s">
+        <v>152</v>
+      </c>
+      <c r="E100" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" t="s">
         <v>145</v>
       </c>
-      <c r="E100" t="s">
-        <v>65</v>
-      </c>
-      <c r="F100" t="s">
-        <v>138</v>
-      </c>
       <c r="G100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="B103" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C103" t="n">
         <v>3.75</v>
       </c>
       <c r="D103" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C106" t="n">
         <v>2.375</v>
       </c>
       <c r="D106" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E106" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F106" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G106" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H106" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C109" t="n">
         <v>2.5123</v>
       </c>
       <c r="D109" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E109" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F109" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G109" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H109" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I109" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C112" t="n">
         <v>3.5765</v>
       </c>
       <c r="D112" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E112" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F112" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H112" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I112" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C115" t="n">
         <v>3.917</v>
       </c>
       <c r="D115" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H115" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C118" t="n">
         <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C119" t="n">
         <v>2.194</v>
       </c>
       <c r="D119" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="E119" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F119" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G119" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="H119" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I119" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C122" t="n">
         <v>3.7</v>
       </c>
       <c r="D122" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E122" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H122" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C125" t="n">
         <v>2.408</v>
       </c>
       <c r="D125" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E125" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F125" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G125" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C128" t="n">
         <v>3.125</v>
       </c>
       <c r="D128" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F128" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H128" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I128" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C131" t="n">
         <v>3</v>
       </c>
       <c r="D131" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E131" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="F131" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H131" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C137" t="n">
         <v>3.75</v>
       </c>
       <c r="D137" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E137" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C140" t="n">
         <v>3.364</v>
       </c>
       <c r="D140" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E140" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F140" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C143" t="n">
         <v>3.182</v>
       </c>
       <c r="D143" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E143" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F143" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H143" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C146" t="n">
         <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H146" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C149" t="n">
         <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C152" t="n">
         <v>3.129</v>
       </c>
       <c r="D152" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E152" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F152" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H152" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>211</v>
+      </c>
+      <c r="I152" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="B155" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C155" t="n">
         <v>3.294</v>
       </c>
       <c r="D155" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E155" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F155" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G155" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H155" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I155" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C158" t="n">
         <v>2.895</v>
       </c>
       <c r="D158" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E158" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F158" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="G158" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="H158" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C161" t="n">
         <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E161" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F161" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>225</v>
+      </c>
+      <c r="I161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C164" t="n">
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H164" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C165" t="n">
         <v>3.966</v>
       </c>
       <c r="D165" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E165" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H165" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C166" t="n">
         <v>3.833</v>
       </c>
       <c r="D166" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H166" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C167" t="n">
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H167" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C170" t="n">
         <v>3.9</v>
       </c>
       <c r="D170" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E170" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H170" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C173" t="n">
         <v>3.529</v>
       </c>
       <c r="D173" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E173" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H173" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H176" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C179" t="n">
         <v>3.6</v>
       </c>
       <c r="D179" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E179" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H179" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C182" t="n">
         <v>2.8667</v>
       </c>
       <c r="D182" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E182" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F182" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G182" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="H182" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C185" t="n">
         <v>3.1875</v>
       </c>
       <c r="D185" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E185" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F185" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H185" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C188" t="n">
         <v>3.286</v>
       </c>
       <c r="D188" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E188" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F188" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H188" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I188" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C191" t="n">
         <v>2.154</v>
       </c>
       <c r="D191" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E191" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="F191" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G191" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H191" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I191" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C194" t="n">
         <v>3.546</v>
       </c>
       <c r="D194" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E194" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H194" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C197" t="n">
         <v>4</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H197" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C200" t="n">
         <v>3.1945</v>
       </c>
       <c r="D200" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E200" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F200" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H200" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C203" t="n">
         <v>3.125</v>
       </c>
       <c r="D203" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E203" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F203" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H203" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C206" t="n">
         <v>3.029</v>
       </c>
       <c r="D206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E206" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F206" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H206" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I206" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C209" t="n">
         <v>4</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H209" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C212" t="n">
         <v>2.484</v>
       </c>
       <c r="D212" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E212" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F212" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G212" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="H212" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I212" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C215" t="n">
         <v>3</v>
       </c>
       <c r="D215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H215" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I215" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C218" t="n">
         <v>2.778</v>
       </c>
       <c r="D218" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E218" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F218" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G218" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="H218" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I218" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="B221" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C221" t="n">
         <v>3.75</v>
       </c>
       <c r="D221" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H221" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I221" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C224" t="n">
         <v>3.7085</v>
       </c>
       <c r="D224" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E224" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H224" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I224" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="B227" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C227" t="n">
         <v>2.872</v>
       </c>
       <c r="D227" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E227" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F227" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H227" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>288</v>
+      </c>
+      <c r="I227" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="B230" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C230" t="n">
         <v>3.214</v>
       </c>
       <c r="D230" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E230" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F230" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G230" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H230" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I230" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="B233" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C233" t="n">
         <v>1.333</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E233" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F233" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G233" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H233" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>294</v>
+      </c>
+      <c r="I233" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="B236" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C236" t="n">
         <v>3.625</v>
       </c>
       <c r="D236" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E236" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F236" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G236" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H236" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I236" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="B239" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C239" t="n">
         <v>2.969</v>
       </c>
       <c r="D239" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="E239" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F239" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G239" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H239" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I239" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="B242" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C242" t="n">
         <v>3.273</v>
       </c>
       <c r="D242" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E242" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F242" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G242" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H242" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I242" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="B245" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C245" t="n">
         <v>3.75</v>
       </c>
       <c r="D245" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E245" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F245" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G245" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H245" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I245" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="B248" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C248" t="n">
         <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E248" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F248" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G248" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H248" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I248" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="B251" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C251" t="n">
         <v>3.586</v>
       </c>
       <c r="D251" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="E251" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G251" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H251" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I251" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C254" t="n">
         <v>4</v>
       </c>
       <c r="D254" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E254" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F254" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G254" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H254" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I254" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="B257" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C257" t="n">
         <v>3.909</v>
       </c>
       <c r="D257" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E257" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F257" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G257" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H257" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I257" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="B260" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C260" t="n">
         <v>3.357</v>
       </c>
       <c r="D260" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E260" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F260" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G260" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H260" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I260" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C263" t="n">
         <v>4</v>
       </c>
       <c r="D263" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E263" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F263" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G263" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H263" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I263" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C266" t="n">
         <v>3.4</v>
       </c>
       <c r="D266" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E266" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F266" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G266" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H266" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C267" t="n">
         <v>2.7</v>
       </c>
       <c r="D267" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E267" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F267" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G267" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H267" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I267" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="B270" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C270" t="n">
         <v>3.25</v>
       </c>
       <c r="D270" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E270" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F270" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G270" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H270" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I270" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="A272" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="B273" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C273" t="n">
         <v>3.636</v>
       </c>
       <c r="D273" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E273" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F273" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G273" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H273" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I273" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="B276" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C276" t="n">
         <v>3</v>
       </c>
       <c r="D276" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E276" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F276" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G276" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H276" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I276" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="B279" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C279" t="n">
         <v>3.8335</v>
       </c>
       <c r="D279" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="E279" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F279" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="G279" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H279" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I279" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="B282" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C282" t="n">
         <v>3.8223</v>
       </c>
       <c r="D282" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="E282" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F282" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="G282" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H282" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I282" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="B285" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C285" t="n">
         <v>3.818</v>
       </c>
       <c r="D285" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E285" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F285" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G285" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H285" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I285" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="B288" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C288" t="n">
         <v>3.6517</v>
       </c>
       <c r="D288" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="E288" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="F288" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="G288" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H288" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I288" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="B291" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C291" t="n">
         <v>3.5955</v>
       </c>
       <c r="D291" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="E291" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="F291" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G291" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H291" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I291" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="B294" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C294" t="n">
         <v>3.4585</v>
       </c>
       <c r="D294" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E294" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F294" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G294" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H294" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I294" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
